--- a/app/config/tables/pediatria/forms/initrounds/initrounds.xlsx
+++ b/app/config/tables/pediatria/forms/initrounds/initrounds.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813596CC-EA77-4820-BCC2-CA40116AF144}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF765C-63A7-42DF-A289-553CD6F6FA12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="863">
   <si>
     <t>setting_name</t>
   </si>
@@ -2609,6 +2609,18 @@
   </si>
   <si>
     <t>Day of round</t>
+  </si>
+  <si>
+    <t>Camo</t>
+  </si>
+  <si>
+    <t>seccao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que voce tem feito para encontrar a crianca </t>
+  </si>
+  <si>
+    <t>Escolha o estudo</t>
   </si>
 </sst>
 </file>
@@ -3353,9 +3365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:R875"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3564,6 +3576,9 @@
       <c r="G14" t="s">
         <v>779</v>
       </c>
+      <c r="H14" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
@@ -3575,6 +3590,9 @@
       <c r="G15" t="s">
         <v>781</v>
       </c>
+      <c r="H15" t="s">
+        <v>859</v>
+      </c>
       <c r="P15" t="s">
         <v>416</v>
       </c>
@@ -3631,6 +3649,9 @@
       </c>
       <c r="G21" t="s">
         <v>787</v>
+      </c>
+      <c r="H21" t="s">
+        <v>861</v>
       </c>
       <c r="P21" t="s">
         <v>416</v>
@@ -3744,6 +3765,9 @@
       </c>
       <c r="G34" t="s">
         <v>717</v>
+      </c>
+      <c r="H34" t="s">
+        <v>862</v>
       </c>
       <c r="Q34" t="s">
         <v>718</v>
@@ -16623,7 +16647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="A127" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -17402,7 +17426,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C70" s="13" t="b">
         <v>1</v>
@@ -17424,7 +17448,7 @@
         <v>89</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C72" s="13" t="b">
         <v>1</v>
@@ -17446,7 +17470,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C74" s="13" t="b">
         <v>1</v>

--- a/app/config/tables/pediatria/forms/initrounds/initrounds.xlsx
+++ b/app/config/tables/pediatria/forms/initrounds/initrounds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF765C-63A7-42DF-A289-553CD6F6FA12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61642A20-39B3-4DDB-A521-CFD74584AFD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="892">
   <si>
     <t>setting_name</t>
   </si>
@@ -1249,9 +1249,6 @@
     <t>Is date of birth known?</t>
   </si>
   <si>
-    <t>Sabe da data do nascimento ?</t>
-  </si>
-  <si>
     <t>If exact dob is know date promt is shown</t>
   </si>
   <si>
@@ -1744,9 +1741,6 @@
     <t>data('vpinjVI')</t>
   </si>
   <si>
-    <t>Date of VAS (Sarampo 1)</t>
-  </si>
-  <si>
     <t>Data de VAS (Sarampo 1)</t>
   </si>
   <si>
@@ -1765,9 +1759,6 @@
     <t>Date of VAA (Yellow fever)</t>
   </si>
   <si>
-    <t>Data de VAA (Fevre amarelio)</t>
-  </si>
-  <si>
     <t>data('vfamVI')&gt;=data('dob')|| data('vfamVI')==null</t>
   </si>
   <si>
@@ -1828,9 +1819,6 @@
     <t>VPI</t>
   </si>
   <si>
-    <t>VAA (Fevre amarelio)</t>
-  </si>
-  <si>
     <t>defdiag1</t>
   </si>
   <si>
@@ -1963,12 +1951,6 @@
     <t>data('prodiag1') == null</t>
   </si>
   <si>
-    <t>Did the child take part in the April 2018 campaign?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A criança tinha participado na campanha de vacinação no mês de Abril de 2018 ? </t>
-  </si>
-  <si>
     <t>Informant</t>
   </si>
   <si>
@@ -2056,9 +2038,6 @@
     <t>Does the child live in the project area?</t>
   </si>
   <si>
-    <t>A criança vive na area de estudo de PSB ?</t>
-  </si>
-  <si>
     <t>selected(data('project'),'1')</t>
   </si>
   <si>
@@ -2185,9 +2164,6 @@
     <t>Name of village</t>
   </si>
   <si>
-    <t>Choose studies</t>
-  </si>
-  <si>
     <t>Choose all studynr prefixes</t>
   </si>
   <si>
@@ -2485,24 +2461,6 @@
     <t>prodiag3n</t>
   </si>
   <si>
-    <t>Pro diagnosis 1</t>
-  </si>
-  <si>
-    <t>Prodiagnostico 1</t>
-  </si>
-  <si>
-    <t>Pro diagnosis 2</t>
-  </si>
-  <si>
-    <t>Prodiagnostico 2</t>
-  </si>
-  <si>
-    <t>Pro diagnosis 3</t>
-  </si>
-  <si>
-    <t>Prodiagnostico 3</t>
-  </si>
-  <si>
     <t>data('prodiag3n') !=null</t>
   </si>
   <si>
@@ -2608,19 +2566,148 @@
     <t>pediatria</t>
   </si>
   <si>
-    <t>Day of round</t>
-  </si>
-  <si>
     <t>Camo</t>
   </si>
   <si>
-    <t>seccao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O que voce tem feito para encontrar a crianca </t>
-  </si>
-  <si>
-    <t>Escolha o estudo</t>
+    <t>NTN - Não tem cartão e não tem vacinas</t>
+  </si>
+  <si>
+    <t>NTS - Não tem cartão, mas tem vacinas</t>
+  </si>
+  <si>
+    <t>Data desconhecida</t>
+  </si>
+  <si>
+    <t>Status desconhecido</t>
+  </si>
+  <si>
+    <t>Não sabe o número</t>
+  </si>
+  <si>
+    <t>Apenas consulta</t>
+  </si>
+  <si>
+    <t>Admitido para observação</t>
+  </si>
+  <si>
+    <t>Incrustado</t>
+  </si>
+  <si>
+    <t>Nenhum diagnóstico</t>
+  </si>
+  <si>
+    <t>Ainda admitido</t>
+  </si>
+  <si>
+    <t>Viveu descarregado</t>
+  </si>
+  <si>
+    <t>Morreu durante a admissão</t>
+  </si>
+  <si>
+    <t>Deixou</t>
+  </si>
+  <si>
+    <t>Cama desconhecida</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Não realizado</t>
+  </si>
+  <si>
+    <t>Tempo desconhecido</t>
+  </si>
+  <si>
+    <t>Dia de cheque</t>
+  </si>
+  <si>
+    <t>Day of check</t>
+  </si>
+  <si>
+    <t>Assistente</t>
+  </si>
+  <si>
+    <t>Status da criança</t>
+  </si>
+  <si>
+    <t>Seccao</t>
+  </si>
+  <si>
+    <t>O que foi feito para encontrar a criança?</t>
+  </si>
+  <si>
+    <t>Sabe da data do nascimento?</t>
+  </si>
+  <si>
+    <t>Choose studie(s)</t>
+  </si>
+  <si>
+    <t>Escolha estudoa(s)</t>
+  </si>
+  <si>
+    <t>Descrição de onde a criança vive</t>
+  </si>
+  <si>
+    <t>As pessoas do projeto vêm pela aldeia?</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Nome da tabanca</t>
+  </si>
+  <si>
+    <t>A mãe está presente?</t>
+  </si>
+  <si>
+    <t>Outra:</t>
+  </si>
+  <si>
+    <t>VAS (Sarampo 1)</t>
+  </si>
+  <si>
+    <t>VAA (Yellow fever)</t>
+  </si>
+  <si>
+    <t>Date of VAS (Measles 1)</t>
+  </si>
+  <si>
+    <t>Data de VAA (Febre amarela)</t>
+  </si>
+  <si>
+    <t>VAA (Febre amarela)</t>
+  </si>
+  <si>
+    <t>Did the child take part in the May 2019 campaign?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criança tinha participado na campanha de vacinação no mês de Maio de 2019 ? </t>
+  </si>
+  <si>
+    <t>Admission diagnosis 1</t>
+  </si>
+  <si>
+    <t>Diagnóstico de admissão 1</t>
+  </si>
+  <si>
+    <t>Admission diagnosis 2</t>
+  </si>
+  <si>
+    <t>Diagnóstico de admissão 2</t>
+  </si>
+  <si>
+    <t>Admission diagnosis 3</t>
+  </si>
+  <si>
+    <t>Diagnóstico de admissão 3</t>
+  </si>
+  <si>
+    <t>A criança vive na area de estudo de PSB?</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2764,12 +2851,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2839,7 +2920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2873,18 +2954,17 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -3227,7 +3307,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3236,7 +3316,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3293,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3309,7 +3389,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3317,10 +3397,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -3366,8 +3446,8 @@
   <dimension ref="A1:R875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G426" sqref="G426:H436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3429,7 +3509,7 @@
         <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>143</v>
@@ -3454,10 +3534,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G3" t="s">
-        <v>858</v>
+        <v>864</v>
+      </c>
+      <c r="H3" t="s">
+        <v>863</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -3476,10 +3559,13 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="G4" t="s">
-        <v>852</v>
+        <v>838</v>
+      </c>
+      <c r="H4" t="s">
+        <v>865</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3508,6 +3594,9 @@
       <c r="G7" t="s">
         <v>401</v>
       </c>
+      <c r="H7" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -3527,13 +3616,13 @@
         <v>328</v>
       </c>
       <c r="G10" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="H10" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="P10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3547,10 +3636,10 @@
         <v>336</v>
       </c>
       <c r="G11" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="H11" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -3571,13 +3660,13 @@
         <v>398</v>
       </c>
       <c r="F14" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="G14" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="H14" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3585,16 +3674,16 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="G15" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="H15" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="P15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3605,7 +3694,7 @@
         <v>399</v>
       </c>
       <c r="F16" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3613,7 +3702,7 @@
         <v>373</v>
       </c>
       <c r="C17" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3621,7 +3710,7 @@
         <v>375</v>
       </c>
       <c r="F18" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="L18">
         <v>9999</v>
@@ -3637,7 +3726,7 @@
         <v>373</v>
       </c>
       <c r="C20" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3645,16 +3734,16 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G21" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="H21" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="P21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3689,13 +3778,13 @@
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="G26" t="s">
         <v>404</v>
       </c>
       <c r="H26" t="s">
-        <v>405</v>
+        <v>869</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3703,10 +3792,10 @@
         <v>373</v>
       </c>
       <c r="C27" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="R27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3717,10 +3806,10 @@
         <v>321</v>
       </c>
       <c r="G28" t="s">
+        <v>406</v>
+      </c>
+      <c r="H28" t="s">
         <v>407</v>
-      </c>
-      <c r="H28" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -3745,7 +3834,7 @@
         <v>373</v>
       </c>
       <c r="C32" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="33" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3764,13 +3853,13 @@
         <v>247</v>
       </c>
       <c r="G34" t="s">
-        <v>717</v>
+        <v>870</v>
       </c>
       <c r="H34" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="Q34" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,13 +3869,13 @@
     </row>
     <row r="36" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C36" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="Q36" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="37" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3799,10 +3888,10 @@
         <v>373</v>
       </c>
       <c r="C38" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="Q38" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3813,10 +3902,10 @@
         <v>293</v>
       </c>
       <c r="L39" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="Q39" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="40" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3827,16 +3916,16 @@
         <v>293</v>
       </c>
       <c r="G40" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="H40" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
       </c>
       <c r="Q40" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="41" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3847,10 +3936,10 @@
         <v>87</v>
       </c>
       <c r="P41" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q41" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3861,10 +3950,10 @@
         <v>308</v>
       </c>
       <c r="L42" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="Q42" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3877,10 +3966,10 @@
         <v>373</v>
       </c>
       <c r="C44" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="Q44" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3891,10 +3980,10 @@
         <v>294</v>
       </c>
       <c r="L45" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="Q45" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3905,10 +3994,10 @@
         <v>294</v>
       </c>
       <c r="G46" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="H46" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -3922,7 +4011,7 @@
         <v>88</v>
       </c>
       <c r="P47" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3933,7 +4022,7 @@
         <v>309</v>
       </c>
       <c r="L48" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3946,10 +4035,10 @@
         <v>373</v>
       </c>
       <c r="C50" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="Q50" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3960,10 +4049,10 @@
         <v>295</v>
       </c>
       <c r="L51" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="Q51" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3974,10 +4063,10 @@
         <v>295</v>
       </c>
       <c r="G52" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="H52" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
@@ -3991,7 +4080,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4002,7 +4091,7 @@
         <v>310</v>
       </c>
       <c r="L54" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4017,7 +4106,7 @@
     </row>
     <row r="57" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -4031,13 +4120,13 @@
         <v>319</v>
       </c>
       <c r="G58" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="H58" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="P58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4045,7 +4134,7 @@
         <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F59" t="s">
         <v>284</v>
@@ -4056,10 +4145,10 @@
         <v>373</v>
       </c>
       <c r="C60" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="Q60" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -4090,12 +4179,12 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
+      <c r="A65" s="29"/>
       <c r="B65" t="s">
         <v>373</v>
       </c>
       <c r="C65" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -4114,10 +4203,10 @@
         <v>333</v>
       </c>
       <c r="G67" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="H67" t="s">
-        <v>674</v>
+        <v>891</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4125,10 +4214,10 @@
         <v>373</v>
       </c>
       <c r="C68" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="Q68" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4142,13 +4231,13 @@
         <v>234</v>
       </c>
       <c r="G69" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="H69" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="Q69" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -4156,10 +4245,10 @@
         <v>373</v>
       </c>
       <c r="C70" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="Q70" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -4173,13 +4262,13 @@
         <v>241</v>
       </c>
       <c r="G71" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="H71" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="P71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -4190,7 +4279,7 @@
         <v>339</v>
       </c>
       <c r="L72" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -4203,10 +4292,10 @@
         <v>373</v>
       </c>
       <c r="C74" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="Q74" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -4220,13 +4309,13 @@
         <v>242</v>
       </c>
       <c r="G75" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="H75" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="P75" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -4237,7 +4326,7 @@
         <v>339</v>
       </c>
       <c r="L76" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -4250,10 +4339,10 @@
         <v>373</v>
       </c>
       <c r="C78" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="Q78" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -4267,13 +4356,13 @@
         <v>243</v>
       </c>
       <c r="G79" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="H79" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="P79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -4284,7 +4373,7 @@
         <v>339</v>
       </c>
       <c r="L80" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
@@ -4297,10 +4386,10 @@
         <v>373</v>
       </c>
       <c r="C82" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="Q82" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
@@ -4314,13 +4403,13 @@
         <v>244</v>
       </c>
       <c r="G83" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="H83" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="P83" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
@@ -4331,7 +4420,7 @@
         <v>339</v>
       </c>
       <c r="L84" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
@@ -4344,10 +4433,10 @@
         <v>373</v>
       </c>
       <c r="C86" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="Q86" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
@@ -4361,13 +4450,13 @@
         <v>245</v>
       </c>
       <c r="G87" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="H87" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="P87" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
@@ -4378,7 +4467,7 @@
         <v>339</v>
       </c>
       <c r="L88" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
@@ -4391,10 +4480,10 @@
         <v>373</v>
       </c>
       <c r="C90" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="Q90" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
@@ -4408,13 +4497,13 @@
         <v>246</v>
       </c>
       <c r="G91" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="H91" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="P91" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
@@ -4425,7 +4514,7 @@
         <v>339</v>
       </c>
       <c r="L92" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
@@ -4438,10 +4527,10 @@
         <v>373</v>
       </c>
       <c r="C94" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="Q94" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
@@ -4452,10 +4541,13 @@
         <v>249</v>
       </c>
       <c r="G95" t="s">
-        <v>827</v>
+        <v>813</v>
+      </c>
+      <c r="H95" t="s">
+        <v>872</v>
       </c>
       <c r="P95" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
@@ -4466,7 +4558,7 @@
         <v>339</v>
       </c>
       <c r="L96" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
@@ -4479,10 +4571,10 @@
         <v>373</v>
       </c>
       <c r="C98" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="Q98" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
@@ -4493,13 +4585,13 @@
         <v>218</v>
       </c>
       <c r="G99" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H99" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="P99" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
@@ -4518,10 +4610,10 @@
         <v>373</v>
       </c>
       <c r="C101" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="Q101" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="102" spans="2:17" x14ac:dyDescent="0.25">
@@ -4545,10 +4637,10 @@
         <v>373</v>
       </c>
       <c r="C104" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="Q104" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
@@ -4556,16 +4648,19 @@
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="G105" t="s">
-        <v>827</v>
+        <v>813</v>
+      </c>
+      <c r="H105" t="s">
+        <v>872</v>
       </c>
       <c r="P105" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q105" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
@@ -4588,10 +4683,10 @@
         <v>373</v>
       </c>
       <c r="C109" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="Q109" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
@@ -4605,7 +4700,10 @@
         <v>338</v>
       </c>
       <c r="G110" t="s">
-        <v>828</v>
+        <v>814</v>
+      </c>
+      <c r="H110" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
@@ -4613,10 +4711,10 @@
         <v>402</v>
       </c>
       <c r="C111" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="Q111" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
@@ -4630,7 +4728,10 @@
         <v>252</v>
       </c>
       <c r="G112" t="s">
-        <v>713</v>
+        <v>706</v>
+      </c>
+      <c r="H112" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -4641,13 +4742,13 @@
         <v>234</v>
       </c>
       <c r="G113" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="H113" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="P113" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -4658,10 +4759,13 @@
         <v>337</v>
       </c>
       <c r="G114" t="s">
-        <v>716</v>
+        <v>709</v>
+      </c>
+      <c r="H114" t="s">
+        <v>875</v>
       </c>
       <c r="P114" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -4680,18 +4784,18 @@
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="30"/>
+      <c r="A118" s="29"/>
       <c r="B118" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
+      <c r="A119" s="28"/>
       <c r="B119" t="s">
         <v>373</v>
       </c>
       <c r="C119" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -4707,13 +4811,13 @@
         <v>329</v>
       </c>
       <c r="G121" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="H121" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="P121" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -4724,13 +4828,13 @@
         <v>325</v>
       </c>
       <c r="G122" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="H122" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="P122" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -4739,7 +4843,7 @@
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
+      <c r="A124" s="28"/>
       <c r="B124" t="s">
         <v>377</v>
       </c>
@@ -4750,7 +4854,7 @@
         <v>373</v>
       </c>
       <c r="C125" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -4766,10 +4870,13 @@
         <v>28</v>
       </c>
       <c r="F127" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G127" t="s">
-        <v>792</v>
+        <v>784</v>
+      </c>
+      <c r="H127" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -4782,7 +4889,7 @@
         <v>373</v>
       </c>
       <c r="C129" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
@@ -4795,10 +4902,10 @@
         <v>375</v>
       </c>
       <c r="F131" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="L131" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
@@ -4806,10 +4913,10 @@
         <v>375</v>
       </c>
       <c r="F132" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="L132" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
@@ -4823,10 +4930,10 @@
         <v>291</v>
       </c>
       <c r="G133" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H133" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
@@ -4834,10 +4941,10 @@
         <v>373</v>
       </c>
       <c r="C134" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="Q134" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
@@ -4851,13 +4958,13 @@
         <v>292</v>
       </c>
       <c r="G135" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="H135" t="s">
-        <v>134</v>
+        <v>877</v>
       </c>
       <c r="P135" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
@@ -4870,10 +4977,10 @@
         <v>373</v>
       </c>
       <c r="C137" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="Q137" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
@@ -4884,7 +4991,7 @@
         <v>324</v>
       </c>
       <c r="L138" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
@@ -4892,7 +4999,7 @@
         <v>376</v>
       </c>
       <c r="Q139" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
@@ -4903,7 +5010,7 @@
         <v>324</v>
       </c>
       <c r="L140" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
@@ -4922,10 +5029,10 @@
         <v>322</v>
       </c>
       <c r="G142" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="H142" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
@@ -4933,10 +5040,10 @@
         <v>373</v>
       </c>
       <c r="C143" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="Q143" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
@@ -4947,13 +5054,13 @@
         <v>323</v>
       </c>
       <c r="G144" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="H144" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="P144" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -4972,10 +5079,10 @@
         <v>326</v>
       </c>
       <c r="G146" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="H146" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -4995,12 +5102,12 @@
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="38"/>
+      <c r="A150" s="37"/>
       <c r="B150" t="s">
         <v>373</v>
       </c>
       <c r="C150" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
@@ -5016,13 +5123,13 @@
         <v>330</v>
       </c>
       <c r="G152" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="H152" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="P152" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -5036,10 +5143,10 @@
         <v>53</v>
       </c>
       <c r="G153" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H153" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
@@ -5048,7 +5155,7 @@
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="38"/>
+      <c r="A155" s="37"/>
       <c r="B155" t="s">
         <v>377</v>
       </c>
@@ -5059,7 +5166,7 @@
         <v>373</v>
       </c>
       <c r="C156" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
@@ -5072,7 +5179,7 @@
         <v>373</v>
       </c>
       <c r="C158" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
@@ -5083,22 +5190,22 @@
         <v>288</v>
       </c>
       <c r="G159" t="s">
+        <v>410</v>
+      </c>
+      <c r="H159" t="s">
         <v>411</v>
       </c>
-      <c r="H159" t="s">
+      <c r="I159" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="I159" s="3" t="s">
+      <c r="J159" t="s">
         <v>413</v>
       </c>
-      <c r="J159" t="s">
+      <c r="K159" t="s">
         <v>414</v>
       </c>
-      <c r="K159" t="s">
+      <c r="P159" t="s">
         <v>415</v>
-      </c>
-      <c r="P159" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
@@ -5118,11 +5225,11 @@
         <v>373</v>
       </c>
       <c r="C161" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I161" s="3"/>
       <c r="Q161" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="162" spans="2:17" x14ac:dyDescent="0.25">
@@ -5134,7 +5241,7 @@
       </c>
       <c r="I162" s="3"/>
       <c r="L162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="163" spans="2:17" x14ac:dyDescent="0.25">
@@ -5143,7 +5250,7 @@
       </c>
       <c r="I163" s="3"/>
       <c r="Q163" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="164" spans="2:17" x14ac:dyDescent="0.25">
@@ -5155,7 +5262,7 @@
       </c>
       <c r="I164" s="3"/>
       <c r="L164" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="165" spans="2:17" x14ac:dyDescent="0.25">
@@ -5175,7 +5282,7 @@
         <v>373</v>
       </c>
       <c r="C167" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I167" s="3"/>
     </row>
@@ -5187,22 +5294,22 @@
         <v>289</v>
       </c>
       <c r="G168" t="s">
+        <v>422</v>
+      </c>
+      <c r="H168" t="s">
         <v>423</v>
       </c>
-      <c r="H168" t="s">
+      <c r="I168" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="I168" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="J168" t="s">
+        <v>413</v>
+      </c>
+      <c r="K168" t="s">
         <v>414</v>
       </c>
-      <c r="K168" t="s">
+      <c r="P168" t="s">
         <v>415</v>
-      </c>
-      <c r="P168" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="169" spans="2:17" x14ac:dyDescent="0.25">
@@ -5222,11 +5329,11 @@
         <v>373</v>
       </c>
       <c r="C170" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I170" s="3"/>
       <c r="Q170" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="171" spans="2:17" x14ac:dyDescent="0.25">
@@ -5238,7 +5345,7 @@
       </c>
       <c r="I171" s="3"/>
       <c r="L171" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="172" spans="2:17" x14ac:dyDescent="0.25">
@@ -5247,7 +5354,7 @@
       </c>
       <c r="I172" s="3"/>
       <c r="Q172" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="173" spans="2:17" x14ac:dyDescent="0.25">
@@ -5259,7 +5366,7 @@
       </c>
       <c r="I173" s="3"/>
       <c r="L173" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="174" spans="2:17" x14ac:dyDescent="0.25">
@@ -5279,10 +5386,10 @@
         <v>373</v>
       </c>
       <c r="C176" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="Q176" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
@@ -5293,22 +5400,22 @@
         <v>290</v>
       </c>
       <c r="G177" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="H177" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="J177" t="s">
+        <v>413</v>
+      </c>
+      <c r="K177" t="s">
         <v>414</v>
       </c>
-      <c r="K177" t="s">
+      <c r="P177" t="s">
         <v>415</v>
-      </c>
-      <c r="P177" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
@@ -5328,11 +5435,11 @@
         <v>373</v>
       </c>
       <c r="C179" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="I179" s="3"/>
       <c r="Q179" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
@@ -5344,7 +5451,7 @@
       </c>
       <c r="I180" s="3"/>
       <c r="L180" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
@@ -5353,7 +5460,7 @@
       </c>
       <c r="I181" s="3"/>
       <c r="Q181" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
@@ -5365,7 +5472,7 @@
       </c>
       <c r="I182" s="3"/>
       <c r="L182" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
@@ -5399,7 +5506,7 @@
         <v>373</v>
       </c>
       <c r="C187" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="I187" s="3"/>
     </row>
@@ -5422,13 +5529,13 @@
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
+        <v>428</v>
+      </c>
+      <c r="G189" t="s">
         <v>429</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>430</v>
-      </c>
-      <c r="H189" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
@@ -5442,10 +5549,10 @@
         <v>314</v>
       </c>
       <c r="G190" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H190" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>433</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -5462,7 +5569,7 @@
         <v>373</v>
       </c>
       <c r="C191" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -5478,7 +5585,7 @@
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
       <c r="R191" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="192" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5489,10 +5596,10 @@
         <v>318</v>
       </c>
       <c r="G192" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H192" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -5503,7 +5610,7 @@
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="193" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5514,10 +5621,10 @@
         <v>316</v>
       </c>
       <c r="G193" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H193" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -5528,7 +5635,7 @@
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="194" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5553,7 +5660,7 @@
         <v>373</v>
       </c>
       <c r="C195" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -5572,7 +5679,7 @@
         <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -5580,7 +5687,7 @@
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
@@ -5600,7 +5707,7 @@
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
@@ -5648,12 +5755,12 @@
       <c r="I200" s="3"/>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A201" s="28"/>
+      <c r="A201" s="27"/>
       <c r="B201" t="s">
         <v>373</v>
       </c>
       <c r="C201" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="I201" s="3"/>
     </row>
@@ -5676,14 +5783,14 @@
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H203" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -5706,10 +5813,10 @@
         <v>313</v>
       </c>
       <c r="G204" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H204" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -5726,7 +5833,7 @@
         <v>373</v>
       </c>
       <c r="C205" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -5742,7 +5849,7 @@
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
       <c r="R205" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
@@ -5753,10 +5860,10 @@
         <v>307</v>
       </c>
       <c r="G206" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H206" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -5767,7 +5874,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
@@ -5778,10 +5885,10 @@
         <v>305</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -5792,7 +5899,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
@@ -5817,7 +5924,7 @@
         <v>373</v>
       </c>
       <c r="C209" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
@@ -5836,7 +5943,7 @@
         <v>375</v>
       </c>
       <c r="F210" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -5844,7 +5951,7 @@
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
@@ -5864,7 +5971,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
@@ -5893,7 +6000,7 @@
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A214" s="28"/>
+      <c r="A214" s="27"/>
       <c r="B214" t="s">
         <v>377</v>
       </c>
@@ -5904,12 +6011,12 @@
         <v>373</v>
       </c>
       <c r="C215" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="216" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B216" t="s">
         <v>17</v>
@@ -5926,10 +6033,10 @@
         <v>396</v>
       </c>
       <c r="G217" t="s">
+        <v>445</v>
+      </c>
+      <c r="H217" t="s">
         <v>446</v>
-      </c>
-      <c r="H217" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
@@ -5937,10 +6044,10 @@
         <v>373</v>
       </c>
       <c r="C218" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="Q218" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
@@ -5959,7 +6066,7 @@
         <v>375</v>
       </c>
       <c r="F220" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
@@ -5967,7 +6074,7 @@
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
@@ -5984,10 +6091,10 @@
         <v>373</v>
       </c>
       <c r="C222" t="s">
+        <v>447</v>
+      </c>
+      <c r="R222" t="s">
         <v>448</v>
-      </c>
-      <c r="R222" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
@@ -5998,13 +6105,13 @@
         <v>28</v>
       </c>
       <c r="F223" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G223" t="s">
+        <v>449</v>
+      </c>
+      <c r="H223" t="s">
         <v>450</v>
-      </c>
-      <c r="H223" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
@@ -6023,7 +6130,7 @@
         <v>373</v>
       </c>
       <c r="C226" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
@@ -6036,10 +6143,10 @@
         <v>375</v>
       </c>
       <c r="F228" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L228" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
@@ -6050,19 +6157,19 @@
         <v>268</v>
       </c>
       <c r="G229" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H229" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="H229" s="1" t="s">
+      <c r="I229" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="I229" s="1" t="s">
+      <c r="J229" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="J229" s="1" t="s">
+      <c r="K229" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="K229" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
@@ -6100,7 +6207,7 @@
         <v>373</v>
       </c>
       <c r="C231" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -6115,7 +6222,7 @@
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
       <c r="R231" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
@@ -6131,7 +6238,7 @@
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
@@ -6157,7 +6264,7 @@
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
       <c r="R233" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
@@ -6173,7 +6280,7 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
@@ -6208,19 +6315,19 @@
         <v>269</v>
       </c>
       <c r="G236" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H236" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="H236" s="1" t="s">
+      <c r="I236" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="I236" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="J236" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K236" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="K236" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
@@ -6246,10 +6353,10 @@
         <v>373</v>
       </c>
       <c r="C238" t="s">
+        <v>464</v>
+      </c>
+      <c r="R238" t="s">
         <v>465</v>
-      </c>
-      <c r="R238" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
@@ -6264,7 +6371,7 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
@@ -6295,7 +6402,7 @@
         <v>373</v>
       </c>
       <c r="C241" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -6309,7 +6416,7 @@
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
       <c r="R241" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="242" spans="2:18" x14ac:dyDescent="0.25">
@@ -6324,7 +6431,7 @@
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
@@ -6349,7 +6456,7 @@
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
       <c r="R243" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="244" spans="2:18" x14ac:dyDescent="0.25">
@@ -6364,7 +6471,7 @@
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
@@ -6421,19 +6528,19 @@
         <v>270</v>
       </c>
       <c r="G248" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H248" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="H248" s="1" t="s">
+      <c r="I248" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="I248" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="J248" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K248" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="K248" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
@@ -6471,7 +6578,7 @@
         <v>373</v>
       </c>
       <c r="C250" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -6486,7 +6593,7 @@
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
       <c r="R250" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="251" spans="2:18" x14ac:dyDescent="0.25">
@@ -6502,7 +6609,7 @@
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
@@ -6528,7 +6635,7 @@
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
       <c r="R252" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="253" spans="2:18" x14ac:dyDescent="0.25">
@@ -6544,7 +6651,7 @@
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
       <c r="L253" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
@@ -6579,19 +6686,19 @@
         <v>271</v>
       </c>
       <c r="G255" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H255" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="H255" s="1" t="s">
+      <c r="I255" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I255" s="1" t="s">
+      <c r="J255" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="J255" s="1" t="s">
+      <c r="K255" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="K255" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
@@ -6617,10 +6724,10 @@
         <v>373</v>
       </c>
       <c r="C257" t="s">
+        <v>480</v>
+      </c>
+      <c r="R257" t="s">
         <v>481</v>
-      </c>
-      <c r="R257" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="258" spans="2:18" x14ac:dyDescent="0.25">
@@ -6635,7 +6742,7 @@
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
       <c r="L258" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
@@ -6666,7 +6773,7 @@
         <v>373</v>
       </c>
       <c r="C260" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -6680,7 +6787,7 @@
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
       <c r="R260" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="261" spans="2:18" x14ac:dyDescent="0.25">
@@ -6695,7 +6802,7 @@
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
@@ -6720,7 +6827,7 @@
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
       <c r="R262" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="263" spans="2:18" x14ac:dyDescent="0.25">
@@ -6735,7 +6842,7 @@
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
       <c r="L263" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
@@ -6770,19 +6877,19 @@
         <v>272</v>
       </c>
       <c r="G265" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H265" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="H265" s="1" t="s">
+      <c r="I265" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I265" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="J265" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K265" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="K265" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
@@ -6807,10 +6914,10 @@
         <v>373</v>
       </c>
       <c r="C267" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R267" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="268" spans="2:18" x14ac:dyDescent="0.25">
@@ -6825,7 +6932,7 @@
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
       <c r="L268" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
@@ -6856,7 +6963,7 @@
         <v>373</v>
       </c>
       <c r="C270" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -6870,7 +6977,7 @@
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
       <c r="R270" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="271" spans="2:18" x14ac:dyDescent="0.25">
@@ -6885,7 +6992,7 @@
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
       <c r="L271" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
@@ -6910,7 +7017,7 @@
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
       <c r="R272" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="273" spans="2:18" x14ac:dyDescent="0.25">
@@ -6925,7 +7032,7 @@
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
@@ -6960,19 +7067,19 @@
         <v>273</v>
       </c>
       <c r="G275" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H275" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="H275" s="1" t="s">
+      <c r="I275" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="I275" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="J275" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K275" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="K275" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
@@ -6997,10 +7104,10 @@
         <v>373</v>
       </c>
       <c r="C277" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="R277" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="278" spans="2:18" x14ac:dyDescent="0.25">
@@ -7015,7 +7122,7 @@
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
       <c r="L278" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
@@ -7046,7 +7153,7 @@
         <v>373</v>
       </c>
       <c r="C280" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
@@ -7060,7 +7167,7 @@
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
       <c r="R280" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="281" spans="2:18" x14ac:dyDescent="0.25">
@@ -7075,7 +7182,7 @@
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
       <c r="L281" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
@@ -7100,7 +7207,7 @@
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
       <c r="R282" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="283" spans="2:18" x14ac:dyDescent="0.25">
@@ -7115,7 +7222,7 @@
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
       <c r="L283" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
@@ -7160,19 +7267,19 @@
         <v>274</v>
       </c>
       <c r="G287" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H287" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="H287" s="1" t="s">
+      <c r="I287" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="I287" s="1" t="s">
+      <c r="J287" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="J287" s="1" t="s">
+      <c r="K287" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="K287" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
@@ -7210,7 +7317,7 @@
         <v>373</v>
       </c>
       <c r="C289" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -7225,7 +7332,7 @@
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
       <c r="R289" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="290" spans="2:18" x14ac:dyDescent="0.25">
@@ -7241,7 +7348,7 @@
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
       <c r="L290" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
@@ -7267,7 +7374,7 @@
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
       <c r="R291" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="292" spans="2:18" x14ac:dyDescent="0.25">
@@ -7283,7 +7390,7 @@
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
       <c r="L292" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
@@ -7318,19 +7425,19 @@
         <v>275</v>
       </c>
       <c r="G294" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H294" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H294" s="1" t="s">
+      <c r="I294" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="I294" s="1" t="s">
+      <c r="J294" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="J294" s="1" t="s">
+      <c r="K294" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="K294" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="L294" s="1"/>
       <c r="M294" s="1"/>
@@ -7356,10 +7463,10 @@
         <v>373</v>
       </c>
       <c r="C296" t="s">
+        <v>512</v>
+      </c>
+      <c r="R296" t="s">
         <v>513</v>
-      </c>
-      <c r="R296" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="297" spans="2:18" x14ac:dyDescent="0.25">
@@ -7374,7 +7481,7 @@
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
       <c r="L297" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
@@ -7405,7 +7512,7 @@
         <v>373</v>
       </c>
       <c r="C299" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -7419,7 +7526,7 @@
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
       <c r="R299" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="300" spans="2:18" x14ac:dyDescent="0.25">
@@ -7434,7 +7541,7 @@
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
       <c r="L300" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
@@ -7459,7 +7566,7 @@
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
       <c r="R301" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="302" spans="2:18" x14ac:dyDescent="0.25">
@@ -7474,7 +7581,7 @@
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
       <c r="L302" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
@@ -7509,19 +7616,19 @@
         <v>276</v>
       </c>
       <c r="G304" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H304" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H304" s="1" t="s">
+      <c r="I304" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="I304" s="1" t="s">
+      <c r="J304" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="J304" s="1" t="s">
+      <c r="K304" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="K304" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="L304" s="1"/>
       <c r="M304" s="1"/>
@@ -7546,10 +7653,10 @@
         <v>373</v>
       </c>
       <c r="C306" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="R306" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="307" spans="2:18" x14ac:dyDescent="0.25">
@@ -7564,7 +7671,7 @@
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
       <c r="L307" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
@@ -7595,7 +7702,7 @@
         <v>373</v>
       </c>
       <c r="C309" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
@@ -7609,7 +7716,7 @@
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
       <c r="R309" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="310" spans="2:18" x14ac:dyDescent="0.25">
@@ -7624,7 +7731,7 @@
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
       <c r="L310" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
@@ -7649,7 +7756,7 @@
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
       <c r="R311" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="312" spans="2:18" x14ac:dyDescent="0.25">
@@ -7664,7 +7771,7 @@
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
       <c r="L312" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
@@ -7699,19 +7806,19 @@
         <v>277</v>
       </c>
       <c r="G314" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H314" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H314" s="1" t="s">
+      <c r="I314" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="I314" s="1" t="s">
+      <c r="J314" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="J314" s="1" t="s">
+      <c r="K314" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="K314" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="L314" s="1"/>
       <c r="M314" s="1"/>
@@ -7736,10 +7843,10 @@
         <v>373</v>
       </c>
       <c r="C316" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="R316" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="317" spans="2:18" x14ac:dyDescent="0.25">
@@ -7754,7 +7861,7 @@
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
       <c r="L317" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
@@ -7785,7 +7892,7 @@
         <v>373</v>
       </c>
       <c r="C319" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
@@ -7799,7 +7906,7 @@
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
       <c r="R319" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="320" spans="2:18" x14ac:dyDescent="0.25">
@@ -7814,7 +7921,7 @@
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
       <c r="L320" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
@@ -7839,7 +7946,7 @@
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
       <c r="R321" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="322" spans="2:18" x14ac:dyDescent="0.25">
@@ -7854,7 +7961,7 @@
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
       <c r="L322" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
@@ -7899,19 +8006,19 @@
         <v>278</v>
       </c>
       <c r="G326" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H326" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H326" s="1" t="s">
+      <c r="I326" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="I326" s="1" t="s">
+      <c r="J326" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="J326" s="1" t="s">
+      <c r="K326" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="K326" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="L326" s="1"/>
       <c r="M326" s="1"/>
@@ -7949,7 +8056,7 @@
         <v>373</v>
       </c>
       <c r="C328" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
@@ -7964,7 +8071,7 @@
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
       <c r="R328" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="329" spans="2:18" x14ac:dyDescent="0.25">
@@ -7980,7 +8087,7 @@
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
@@ -8006,7 +8113,7 @@
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
       <c r="R330" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="331" spans="2:18" x14ac:dyDescent="0.25">
@@ -8022,7 +8129,7 @@
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
       <c r="L331" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
@@ -8057,19 +8164,19 @@
         <v>279</v>
       </c>
       <c r="G333" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H333" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H333" s="1" t="s">
+      <c r="I333" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="I333" s="1" t="s">
+      <c r="J333" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="J333" s="1" t="s">
+      <c r="K333" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="K333" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
@@ -8095,10 +8202,10 @@
         <v>373</v>
       </c>
       <c r="C335" t="s">
+        <v>548</v>
+      </c>
+      <c r="R335" t="s">
         <v>549</v>
-      </c>
-      <c r="R335" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="336" spans="2:18" x14ac:dyDescent="0.25">
@@ -8113,7 +8220,7 @@
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
       <c r="L336" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
@@ -8144,7 +8251,7 @@
         <v>373</v>
       </c>
       <c r="C338" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
@@ -8158,7 +8265,7 @@
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
       <c r="R338" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="339" spans="2:18" x14ac:dyDescent="0.25">
@@ -8173,7 +8280,7 @@
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
       <c r="L339" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
@@ -8198,7 +8305,7 @@
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
       <c r="R340" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="341" spans="2:18" x14ac:dyDescent="0.25">
@@ -8213,7 +8320,7 @@
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
@@ -8248,19 +8355,19 @@
         <v>280</v>
       </c>
       <c r="G343" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H343" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="H343" s="1" t="s">
+      <c r="I343" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="I343" s="1" t="s">
+      <c r="J343" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="J343" s="1" t="s">
+      <c r="K343" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="K343" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -8285,10 +8392,10 @@
         <v>373</v>
       </c>
       <c r="C345" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="R345" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="346" spans="2:18" x14ac:dyDescent="0.25">
@@ -8303,7 +8410,7 @@
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
       <c r="L346" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
@@ -8334,7 +8441,7 @@
         <v>373</v>
       </c>
       <c r="C348" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -8348,7 +8455,7 @@
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
       <c r="R348" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="349" spans="2:18" x14ac:dyDescent="0.25">
@@ -8363,7 +8470,7 @@
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
       <c r="L349" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
@@ -8388,7 +8495,7 @@
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
       <c r="R350" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="351" spans="2:18" x14ac:dyDescent="0.25">
@@ -8403,7 +8510,7 @@
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
       <c r="L351" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
@@ -8438,19 +8545,19 @@
         <v>281</v>
       </c>
       <c r="G353" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H353" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H353" s="1" t="s">
+      <c r="I353" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I353" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="J353" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K353" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="K353" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="L353" s="1"/>
       <c r="M353" s="1"/>
@@ -8475,10 +8582,10 @@
         <v>373</v>
       </c>
       <c r="C355" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R355" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="356" spans="2:18" x14ac:dyDescent="0.25">
@@ -8493,7 +8600,7 @@
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
       <c r="L356" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
@@ -8524,7 +8631,7 @@
         <v>373</v>
       </c>
       <c r="C358" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
@@ -8538,7 +8645,7 @@
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
       <c r="R358" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="359" spans="2:18" x14ac:dyDescent="0.25">
@@ -8553,7 +8660,7 @@
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
       <c r="L359" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
@@ -8578,7 +8685,7 @@
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
       <c r="R360" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="361" spans="2:18" x14ac:dyDescent="0.25">
@@ -8593,7 +8700,7 @@
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
       <c r="L361" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
@@ -8638,19 +8745,19 @@
         <v>282</v>
       </c>
       <c r="G365" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I365" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H365" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="I365" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="J365" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K365" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="K365" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="L365" s="1"/>
       <c r="M365" s="1"/>
@@ -8688,7 +8795,7 @@
         <v>373</v>
       </c>
       <c r="C367" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
@@ -8703,7 +8810,7 @@
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
       <c r="R367" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="368" spans="2:18" x14ac:dyDescent="0.25">
@@ -8719,7 +8826,7 @@
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
       <c r="L368" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
@@ -8745,7 +8852,7 @@
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
       <c r="R369" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.25">
@@ -8761,7 +8868,7 @@
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
       <c r="L370" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
@@ -8796,19 +8903,19 @@
         <v>283</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>577</v>
+        <v>881</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J372" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K372" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="K372" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="L372" s="1"/>
       <c r="M372" s="1"/>
@@ -8833,10 +8940,10 @@
         <v>373</v>
       </c>
       <c r="C374" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="R374" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.25">
@@ -8851,7 +8958,7 @@
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
       <c r="L375" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
@@ -8882,7 +8989,7 @@
         <v>373</v>
       </c>
       <c r="C377" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
@@ -8896,7 +9003,7 @@
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
       <c r="R377" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.25">
@@ -8911,7 +9018,7 @@
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
       <c r="L378" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
@@ -8936,7 +9043,7 @@
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
       <c r="R379" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.25">
@@ -8951,7 +9058,7 @@
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
       <c r="L380" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
@@ -9007,10 +9114,10 @@
         <v>373</v>
       </c>
       <c r="C384" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="R384" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
@@ -9026,10 +9133,10 @@
         <v>375</v>
       </c>
       <c r="F386" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L386" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
@@ -9045,6 +9152,9 @@
       <c r="G387" t="s">
         <v>189</v>
       </c>
+      <c r="H387" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D388" t="s">
@@ -9057,7 +9167,10 @@
         <v>332</v>
       </c>
       <c r="G388" t="s">
-        <v>585</v>
+        <v>582</v>
+      </c>
+      <c r="H388" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
@@ -9081,7 +9194,10 @@
         <v>352</v>
       </c>
       <c r="G391" t="s">
-        <v>586</v>
+        <v>583</v>
+      </c>
+      <c r="H391" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
@@ -9095,7 +9211,10 @@
         <v>353</v>
       </c>
       <c r="G392" t="s">
-        <v>587</v>
+        <v>584</v>
+      </c>
+      <c r="H392" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
@@ -9109,7 +9228,10 @@
         <v>354</v>
       </c>
       <c r="G393" t="s">
-        <v>588</v>
+        <v>585</v>
+      </c>
+      <c r="H393" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
@@ -9133,7 +9255,10 @@
         <v>346</v>
       </c>
       <c r="G396" t="s">
-        <v>589</v>
+        <v>586</v>
+      </c>
+      <c r="H396" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
@@ -9147,7 +9272,10 @@
         <v>347</v>
       </c>
       <c r="G397" t="s">
-        <v>590</v>
+        <v>587</v>
+      </c>
+      <c r="H397" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
@@ -9161,7 +9289,10 @@
         <v>348</v>
       </c>
       <c r="G398" t="s">
-        <v>591</v>
+        <v>588</v>
+      </c>
+      <c r="H398" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
@@ -9185,7 +9316,10 @@
         <v>349</v>
       </c>
       <c r="G401" t="s">
-        <v>592</v>
+        <v>589</v>
+      </c>
+      <c r="H401" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="402" spans="1:16" x14ac:dyDescent="0.25">
@@ -9199,7 +9333,10 @@
         <v>350</v>
       </c>
       <c r="G402" t="s">
-        <v>593</v>
+        <v>590</v>
+      </c>
+      <c r="H402" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="403" spans="1:16" x14ac:dyDescent="0.25">
@@ -9213,7 +9350,10 @@
         <v>351</v>
       </c>
       <c r="G403" t="s">
-        <v>594</v>
+        <v>591</v>
+      </c>
+      <c r="H403" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="404" spans="1:16" x14ac:dyDescent="0.25">
@@ -9237,7 +9377,10 @@
         <v>334</v>
       </c>
       <c r="G406" t="s">
-        <v>595</v>
+        <v>592</v>
+      </c>
+      <c r="H406" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="407" spans="1:16" x14ac:dyDescent="0.25">
@@ -9251,7 +9394,10 @@
         <v>335</v>
       </c>
       <c r="G407" t="s">
-        <v>596</v>
+        <v>593</v>
+      </c>
+      <c r="H407" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="408" spans="1:16" x14ac:dyDescent="0.25">
@@ -9275,7 +9421,10 @@
         <v>355</v>
       </c>
       <c r="G410" t="s">
-        <v>597</v>
+        <v>594</v>
+      </c>
+      <c r="H410" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="411" spans="1:16" x14ac:dyDescent="0.25">
@@ -9289,7 +9438,10 @@
         <v>356</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>570</v>
+        <v>880</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="412" spans="1:16" x14ac:dyDescent="0.25">
@@ -9303,7 +9455,10 @@
         <v>345</v>
       </c>
       <c r="G412" t="s">
-        <v>598</v>
+        <v>879</v>
+      </c>
+      <c r="H412" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="413" spans="1:16" x14ac:dyDescent="0.25">
@@ -9347,10 +9502,10 @@
         <v>311</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>643</v>
+        <v>883</v>
       </c>
       <c r="H416" s="1" t="s">
-        <v>644</v>
+        <v>884</v>
       </c>
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
@@ -9372,10 +9527,10 @@
         <v>312</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="H417" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
@@ -9391,15 +9546,15 @@
         <v>375</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
-      <c r="L418" s="32">
-        <v>1804</v>
+      <c r="L418" s="31">
+        <v>1905</v>
       </c>
       <c r="M418" s="1"/>
       <c r="N418" s="1"/>
@@ -9411,7 +9566,7 @@
         <v>373</v>
       </c>
       <c r="C419" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
@@ -9430,7 +9585,7 @@
         <v>375</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
@@ -9438,7 +9593,7 @@
       <c r="J420" s="1"/>
       <c r="K420" s="1"/>
       <c r="L420" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="M420" s="1"/>
       <c r="N420" s="1"/>
@@ -9478,7 +9633,7 @@
         <v>373</v>
       </c>
       <c r="C424" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="425" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9497,10 +9652,10 @@
         <v>368</v>
       </c>
       <c r="G426" t="s">
-        <v>817</v>
+        <v>885</v>
       </c>
       <c r="H426" t="s">
-        <v>818</v>
+        <v>886</v>
       </c>
     </row>
     <row r="427" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9549,10 +9704,10 @@
         <v>369</v>
       </c>
       <c r="G431" t="s">
-        <v>819</v>
+        <v>887</v>
       </c>
       <c r="H431" t="s">
-        <v>820</v>
+        <v>888</v>
       </c>
     </row>
     <row r="432" spans="1:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9598,13 +9753,13 @@
         <v>357</v>
       </c>
       <c r="F436" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="G436" t="s">
-        <v>821</v>
+        <v>889</v>
       </c>
       <c r="H436" t="s">
-        <v>822</v>
+        <v>890</v>
       </c>
     </row>
     <row r="437" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9615,7 +9770,7 @@
         <v>371</v>
       </c>
       <c r="F437" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="438" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9623,7 +9778,7 @@
         <v>373</v>
       </c>
       <c r="C438" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
     </row>
     <row r="439" spans="1:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -9631,7 +9786,7 @@
         <v>375</v>
       </c>
       <c r="F439" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="L439">
         <v>9999</v>
@@ -13088,7 +13243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -13097,7 +13252,7 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -13318,7 +13473,9 @@
       <c r="C15" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -13330,7 +13487,9 @@
       <c r="C16" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -13863,7 +14022,9 @@
       <c r="C53" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -13875,7 +14036,9 @@
       <c r="C54" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -13915,7 +14078,9 @@
       <c r="C57" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -13997,7 +14162,9 @@
       <c r="C63" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -14009,7 +14176,9 @@
       <c r="C64" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
@@ -14037,7 +14206,9 @@
       <c r="C66" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -14329,7 +14500,9 @@
       <c r="C87" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="7"/>
+      <c r="D87" s="7" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
@@ -14341,7 +14514,9 @@
       <c r="C88" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="7" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -14381,7 +14556,9 @@
       <c r="C91" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="5" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -14393,7 +14570,9 @@
       <c r="C92" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
@@ -14433,7 +14612,9 @@
       <c r="C95" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
@@ -14445,7 +14626,9 @@
       <c r="C96" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
@@ -14485,7 +14668,9 @@
       <c r="C99" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D99" s="5"/>
+      <c r="D99" s="5" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -14497,7 +14682,9 @@
       <c r="C100" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D100" s="5"/>
+      <c r="D100" s="5" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
@@ -14537,7 +14724,9 @@
       <c r="C103" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="7" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -14549,11 +14738,13 @@
       <c r="C104" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D104" s="7"/>
+      <c r="D104" s="7" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -15581,7 +15772,9 @@
       <c r="C168" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D168" s="7"/>
+      <c r="D168" s="7" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
@@ -15593,20 +15786,22 @@
       <c r="C169" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D169" s="7"/>
+      <c r="D169" s="7" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="27" t="s">
+      <c r="A170" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B170" s="27" t="str">
+      <c r="B170" s="5" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
-      <c r="C170" s="27" t="s">
+      <c r="C170" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D170" s="27" t="s">
+      <c r="D170" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -15621,7 +15816,9 @@
       <c r="C171" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="D171" s="7"/>
+      <c r="D171" s="7" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
@@ -15634,7 +15831,9 @@
       <c r="C172" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="D172" s="7"/>
+      <c r="D172" s="7" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
@@ -15647,7 +15846,9 @@
       <c r="C173" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="D173" s="7"/>
+      <c r="D173" s="7" t="s">
+        <v>852</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
@@ -15660,7 +15861,9 @@
       <c r="C174" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D174" s="5"/>
+      <c r="D174" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
@@ -15673,7 +15876,9 @@
       <c r="C175" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D175" s="5"/>
+      <c r="D175" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
@@ -15686,7 +15891,9 @@
       <c r="C176" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D176" s="5"/>
+      <c r="D176" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
@@ -15699,7 +15906,9 @@
       <c r="C177" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D177" s="5"/>
+      <c r="D177" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
@@ -15712,7 +15921,9 @@
       <c r="C178" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D178" s="5"/>
+      <c r="D178" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
@@ -15725,7 +15936,9 @@
       <c r="C179" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D179" s="5"/>
+      <c r="D179" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
@@ -15738,7 +15951,9 @@
       <c r="C180" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D180" s="5"/>
+      <c r="D180" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
@@ -15751,7 +15966,9 @@
       <c r="C181" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D181" s="5"/>
+      <c r="D181" s="5" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
@@ -15764,7 +15981,9 @@
       <c r="C182" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D182" s="5"/>
+      <c r="D182" s="5" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
@@ -15777,7 +15996,9 @@
       <c r="C183" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D183" s="5"/>
+      <c r="D183" s="5" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
@@ -15790,7 +16011,9 @@
       <c r="C184" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D184" s="7"/>
+      <c r="D184" s="7" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
@@ -15803,7 +16026,9 @@
       <c r="C185" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D185" s="5"/>
+      <c r="D185" s="5" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
@@ -15816,7 +16041,9 @@
       <c r="C186" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D186" s="5"/>
+      <c r="D186" s="5" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
@@ -15829,7 +16056,9 @@
       <c r="C187" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D187" s="5"/>
+      <c r="D187" s="5" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
@@ -15842,7 +16071,9 @@
       <c r="C188" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D188" s="5"/>
+      <c r="D188" s="5" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
@@ -15854,20 +16085,22 @@
       <c r="C189" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D189" s="7"/>
+      <c r="D189" s="7" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -15875,13 +16108,13 @@
         <v>398</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -15889,13 +16122,13 @@
         <v>398</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -15903,13 +16136,13 @@
         <v>398</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -15917,13 +16150,13 @@
         <v>398</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -15931,13 +16164,13 @@
         <v>398</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -15945,13 +16178,13 @@
         <v>398</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -15959,13 +16192,13 @@
         <v>398</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -15973,13 +16206,13 @@
         <v>398</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -15987,13 +16220,13 @@
         <v>398</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -16001,13 +16234,13 @@
         <v>398</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -16015,13 +16248,13 @@
         <v>398</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -16029,13 +16262,13 @@
         <v>398</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -16046,10 +16279,10 @@
         <v>61</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -16063,11 +16296,13 @@
       <c r="C204" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D204" s="7"/>
+      <c r="D204" s="7" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
@@ -16076,11 +16311,13 @@
       <c r="C205" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D205" s="5"/>
+      <c r="D205" s="5" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
@@ -16089,11 +16326,13 @@
       <c r="C206" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D206" s="5"/>
+      <c r="D206" s="5" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
@@ -16102,11 +16341,13 @@
       <c r="C207" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D207" s="5"/>
+      <c r="D207" s="5" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
@@ -16115,50 +16356,58 @@
       <c r="C208" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D208" s="5"/>
+      <c r="D208" s="5" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="D209" s="7"/>
+        <v>625</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="D210" s="7"/>
+        <v>626</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="D211" s="7"/>
+        <v>627</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -16173,119 +16422,119 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>61</v>
@@ -16298,33 +16547,37 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="34" t="s">
-        <v>632</v>
+      <c r="A222" s="33" t="s">
+        <v>628</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>231</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="D222" s="5"/>
+        <v>629</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="D223" s="7"/>
+        <v>626</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -16339,212 +16592,212 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B225" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
-      <c r="C225" s="35" t="s">
-        <v>832</v>
-      </c>
-      <c r="D225" s="35" t="s">
-        <v>832</v>
+      <c r="C225" s="34" t="s">
+        <v>818</v>
+      </c>
+      <c r="D225" s="34" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B226" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C226" s="36" t="s">
-        <v>833</v>
-      </c>
-      <c r="D226" s="36" t="s">
-        <v>833</v>
+      <c r="C226" s="35" t="s">
+        <v>819</v>
+      </c>
+      <c r="D226" s="35" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B227" s="5" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
-      <c r="C227" s="36" t="s">
-        <v>834</v>
-      </c>
-      <c r="D227" s="36" t="s">
-        <v>834</v>
+      <c r="C227" s="35" t="s">
+        <v>820</v>
+      </c>
+      <c r="D227" s="35" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B228" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C228" s="36" t="s">
-        <v>835</v>
-      </c>
-      <c r="D228" s="36" t="s">
-        <v>835</v>
+      <c r="C228" s="35" t="s">
+        <v>821</v>
+      </c>
+      <c r="D228" s="35" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B229" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C229" s="36" t="s">
-        <v>836</v>
-      </c>
-      <c r="D229" s="36" t="s">
-        <v>836</v>
+      <c r="C229" s="35" t="s">
+        <v>822</v>
+      </c>
+      <c r="D229" s="35" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B230" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C230" s="36" t="s">
-        <v>837</v>
-      </c>
-      <c r="D230" s="36" t="s">
-        <v>837</v>
+      <c r="C230" s="35" t="s">
+        <v>823</v>
+      </c>
+      <c r="D230" s="35" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B231" s="5" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C231" s="36" t="s">
-        <v>838</v>
-      </c>
-      <c r="D231" s="36" t="s">
-        <v>838</v>
+      <c r="C231" s="35" t="s">
+        <v>824</v>
+      </c>
+      <c r="D231" s="35" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B232" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C232" s="36" t="s">
-        <v>839</v>
-      </c>
-      <c r="D232" s="36" t="s">
-        <v>839</v>
+      <c r="C232" s="35" t="s">
+        <v>825</v>
+      </c>
+      <c r="D232" s="35" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B233" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C233" s="36" t="s">
-        <v>840</v>
-      </c>
-      <c r="D233" s="36" t="s">
-        <v>840</v>
+      <c r="C233" s="35" t="s">
+        <v>826</v>
+      </c>
+      <c r="D233" s="35" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B234" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C234" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D234" s="36" t="s">
-        <v>841</v>
+      <c r="C234" s="35" t="s">
+        <v>827</v>
+      </c>
+      <c r="D234" s="35" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B235" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C235" s="36" t="s">
-        <v>842</v>
-      </c>
-      <c r="D235" s="36" t="s">
-        <v>842</v>
+      <c r="C235" s="35" t="s">
+        <v>828</v>
+      </c>
+      <c r="D235" s="35" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B236" s="5" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C236" s="36" t="s">
-        <v>843</v>
-      </c>
-      <c r="D236" s="36" t="s">
-        <v>843</v>
+      <c r="C236" s="35" t="s">
+        <v>829</v>
+      </c>
+      <c r="D236" s="35" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B237" s="5" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
-      <c r="C237" s="36" t="s">
-        <v>844</v>
-      </c>
-      <c r="D237" s="36" t="s">
-        <v>844</v>
+      <c r="C237" s="35" t="s">
+        <v>830</v>
+      </c>
+      <c r="D237" s="35" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="B238" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C238" s="36" t="s">
-        <v>845</v>
-      </c>
-      <c r="D238" s="36" t="s">
-        <v>845</v>
+      <c r="C238" s="35" t="s">
+        <v>831</v>
+      </c>
+      <c r="D238" s="35" t="s">
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -16686,7 +16939,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>35</v>
@@ -16774,7 +17027,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>19</v>
@@ -16785,7 +17038,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>8</v>
@@ -16895,7 +17148,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>8</v>
@@ -16906,7 +17159,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>8</v>
@@ -16917,7 +17170,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>8</v>
@@ -16928,7 +17181,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>35</v>
@@ -17148,7 +17401,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>19</v>
@@ -17247,7 +17500,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>9</v>
@@ -17280,7 +17533,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>8</v>
@@ -18083,7 +18336,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>8</v>
@@ -18116,7 +18369,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>145</v>
@@ -18126,162 +18379,162 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="29" t="s">
-        <v>846</v>
-      </c>
-      <c r="B134" s="29" t="s">
+      <c r="A134" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="B134" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="29" t="b">
+      <c r="C134" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="37" t="s">
-        <v>849</v>
-      </c>
-      <c r="B135" s="37" t="s">
+      <c r="A135" s="36" t="s">
+        <v>835</v>
+      </c>
+      <c r="B135" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="37" t="b">
+      <c r="C135" s="36" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="33" t="s">
+      <c r="A136" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="32" t="s">
         <v>780</v>
       </c>
-      <c r="B136" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="33" t="b">
+      <c r="B137" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="33" t="s">
-        <v>788</v>
-      </c>
-      <c r="B137" s="33" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="B138" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="33" t="b">
+      <c r="C138" s="32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="33" t="s">
-        <v>784</v>
-      </c>
-      <c r="B138" s="33" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="32" t="s">
+        <v>770</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="B144" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="B146" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="33" t="b">
+      <c r="C146" s="27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="33" t="s">
-        <v>778</v>
-      </c>
-      <c r="B139" s="33" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="B147" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="B140" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="B141" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="B142" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" s="31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="31" t="s">
-        <v>829</v>
-      </c>
-      <c r="B143" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="B144" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="28" t="s">
-        <v>851</v>
-      </c>
-      <c r="B145" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="28" t="s">
-        <v>785</v>
-      </c>
-      <c r="B146" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="28" t="s">
-        <v>603</v>
-      </c>
-      <c r="B147" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="28" t="b">
+      <c r="C147" s="27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>8</v>
@@ -18292,7 +18545,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>8</v>
@@ -18303,7 +18556,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>8</v>
@@ -18314,7 +18567,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>8</v>
@@ -18325,7 +18578,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>19</v>
@@ -18336,7 +18589,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B153" s="18" t="s">
         <v>19</v>
@@ -18347,7 +18600,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>19</v>
@@ -18358,7 +18611,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>19</v>
@@ -18369,7 +18622,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>306</v>
@@ -18380,7 +18633,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>19</v>
@@ -18391,7 +18644,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B158" s="18" t="s">
         <v>19</v>
@@ -18402,7 +18655,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B159" s="18" t="s">
         <v>19</v>
@@ -18435,7 +18688,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B162" s="18" t="s">
         <v>35</v>
@@ -18446,7 +18699,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>35</v>
@@ -18457,7 +18710,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B164" s="18" t="s">
         <v>19</v>
@@ -18468,7 +18721,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="20" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B165" s="19" t="s">
         <v>145</v>
@@ -18479,7 +18732,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="20" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B166" s="19" t="s">
         <v>145</v>
@@ -18490,7 +18743,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="20" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>145</v>
@@ -18501,7 +18754,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="20" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B168" s="19" t="s">
         <v>145</v>
@@ -18512,7 +18765,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="B169" s="19" t="s">
         <v>19</v>
@@ -18523,7 +18776,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>145</v>
@@ -18534,7 +18787,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="20" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B171" s="19" t="s">
         <v>145</v>
@@ -18545,7 +18798,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B172" s="19" t="s">
         <v>145</v>
@@ -18556,7 +18809,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B173" s="19" t="s">
         <v>145</v>
@@ -18578,7 +18831,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="19" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>35</v>
@@ -18589,7 +18842,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="19" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B176" s="19" t="s">
         <v>145</v>
@@ -18600,7 +18853,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="19" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B177" s="19" t="s">
         <v>145</v>
